--- a/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/ImageRepository.xlsx
+++ b/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/components/ImageRepository.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\12.12\JD\console;Management-and-Monitoring;可用性监控控制台中文元素（3份文件）-译文-提交\jksChExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21840" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -24,43 +19,22 @@
     <t>ImageRepository_i18nKey_1</t>
   </si>
   <si>
-    <t>Container Registry Name</t>
-  </si>
-  <si>
     <t>ImageRepository_i18nKey_2</t>
   </si>
   <si>
-    <t>Repository URI</t>
-  </si>
-  <si>
     <t>ImageRepository_i18nKey_3</t>
   </si>
   <si>
-    <t>Used Space</t>
-  </si>
-  <si>
     <t>ImageRepository_i18nKey_4</t>
   </si>
   <si>
-    <t>Image Count</t>
-  </si>
-  <si>
     <t>ImageRepository_i18nKey_5</t>
   </si>
   <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
     <t>ImageRepository_i18nKey_6</t>
   </si>
   <si>
-    <t>Update Time</t>
-  </si>
-  <si>
     <t>ImageRepository_i18nKey_7</t>
-  </si>
-  <si>
-    <t>No Container Registry Data</t>
   </si>
   <si>
     <r>
@@ -147,13 +121,41 @@
       </rPr>
       <t>URI</t>
     </r>
+  </si>
+  <si>
+    <t>Repository URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repository Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Container Repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +182,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,9 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,95 +556,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
